--- a/txt_data_1_7.xlsx
+++ b/txt_data_1_7.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="txt_data_1_7" sheetId="1" r:id="rId1"/>
     <sheet name="运营商成功率" sheetId="2" r:id="rId2"/>
     <sheet name="省份成功率 " sheetId="4" r:id="rId3"/>
     <sheet name="城市成功率" sheetId="3" r:id="rId4"/>
+    <sheet name="城市+运营商成功率" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">txt_data_1_7!$A$1:$G$215</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379">
   <si>
     <t>IP</t>
   </si>
@@ -1151,6 +1155,9 @@
   </si>
   <si>
     <t>成功率</t>
+  </si>
+  <si>
+    <t>运营商</t>
   </si>
 </sst>
 </file>
@@ -1159,8 +1166,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1173,13 +1180,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1196,16 +1196,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1220,53 +1233,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1288,8 +1255,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1297,7 +1288,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1311,8 +1302,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1320,7 +1319,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1335,7 +1342,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,43 +1384,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,13 +1408,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,13 +1450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,19 +1462,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,25 +1492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1497,25 +1504,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1526,15 +1533,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1554,30 +1552,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1588,15 +1562,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1626,158 +1591,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2096,11 +2104,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G215"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K229" sqref="K229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2128,7 +2136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" hidden="1" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2151,7 +2159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" hidden="1" spans="1:7">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2174,7 +2182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" hidden="1" spans="1:7">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2220,7 +2228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" hidden="1" spans="1:7">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2243,7 +2251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" hidden="1" spans="1:7">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2266,7 +2274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" hidden="1" spans="1:7">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2289,7 +2297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" hidden="1" spans="1:7">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2312,7 +2320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" hidden="1" spans="1:7">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -2335,7 +2343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" hidden="1" spans="1:7">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2358,7 +2366,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" hidden="1" spans="1:7">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2381,7 +2389,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" hidden="1" spans="1:7">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2404,7 +2412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" hidden="1" spans="1:7">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -2427,7 +2435,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" hidden="1" spans="1:7">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2450,7 +2458,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" hidden="1" spans="1:7">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2473,7 +2481,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" hidden="1" spans="1:7">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -2496,7 +2504,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" hidden="1" spans="1:7">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -2519,7 +2527,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" hidden="1" spans="1:7">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -2542,7 +2550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" hidden="1" spans="1:7">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -2565,7 +2573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" hidden="1" spans="1:7">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -2588,7 +2596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" hidden="1" spans="1:7">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -2611,7 +2619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" hidden="1" spans="1:7">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -2634,7 +2642,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" hidden="1" spans="1:7">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -2657,7 +2665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" hidden="1" spans="1:7">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -2680,7 +2688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" hidden="1" spans="1:7">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -2703,7 +2711,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" hidden="1" spans="1:7">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -2726,7 +2734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" hidden="1" spans="1:7">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -2772,7 +2780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" hidden="1" spans="1:7">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -2795,7 +2803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" hidden="1" spans="1:7">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -2818,7 +2826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" hidden="1" spans="1:7">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -2841,7 +2849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" hidden="1" spans="1:7">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -2864,7 +2872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" hidden="1" spans="1:7">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -2887,7 +2895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" hidden="1" spans="1:7">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -2910,7 +2918,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" hidden="1" spans="1:7">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -2933,7 +2941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" hidden="1" spans="1:7">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -2956,7 +2964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" hidden="1" spans="1:7">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -2979,7 +2987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" hidden="1" spans="1:7">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -3002,7 +3010,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" hidden="1" spans="1:7">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -3025,7 +3033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" hidden="1" spans="1:7">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -3048,7 +3056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" hidden="1" spans="1:7">
       <c r="A42" t="s">
         <v>107</v>
       </c>
@@ -3094,7 +3102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" hidden="1" spans="1:7">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -3140,7 +3148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" hidden="1" spans="1:7">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -3163,7 +3171,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" hidden="1" spans="1:7">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -3186,7 +3194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" hidden="1" spans="1:7">
       <c r="A48" t="s">
         <v>117</v>
       </c>
@@ -3209,7 +3217,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" hidden="1" spans="1:7">
       <c r="A49" t="s">
         <v>119</v>
       </c>
@@ -3232,7 +3240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" hidden="1" spans="1:7">
       <c r="A50" t="s">
         <v>120</v>
       </c>
@@ -3255,7 +3263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" hidden="1" spans="1:7">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -3278,7 +3286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" hidden="1" spans="1:7">
       <c r="A52" t="s">
         <v>124</v>
       </c>
@@ -3301,7 +3309,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" hidden="1" spans="1:7">
       <c r="A53" t="s">
         <v>125</v>
       </c>
@@ -3324,7 +3332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" hidden="1" spans="1:7">
       <c r="A54" t="s">
         <v>127</v>
       </c>
@@ -3347,7 +3355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" hidden="1" spans="1:7">
       <c r="A55" t="s">
         <v>130</v>
       </c>
@@ -3370,7 +3378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" hidden="1" spans="1:7">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -3416,7 +3424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" hidden="1" spans="1:7">
       <c r="A58" t="s">
         <v>133</v>
       </c>
@@ -3439,7 +3447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" hidden="1" spans="1:7">
       <c r="A59" t="s">
         <v>135</v>
       </c>
@@ -3462,7 +3470,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" hidden="1" spans="1:7">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -3485,7 +3493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" hidden="1" spans="1:7">
       <c r="A61" t="s">
         <v>139</v>
       </c>
@@ -3508,7 +3516,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" hidden="1" spans="1:7">
       <c r="A62" t="s">
         <v>144</v>
       </c>
@@ -3531,7 +3539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" hidden="1" spans="1:7">
       <c r="A63" t="s">
         <v>145</v>
       </c>
@@ -3577,7 +3585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" hidden="1" spans="1:7">
       <c r="A65" t="s">
         <v>148</v>
       </c>
@@ -3623,7 +3631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" hidden="1" spans="1:7">
       <c r="A67" t="s">
         <v>151</v>
       </c>
@@ -3646,7 +3654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" hidden="1" spans="1:7">
       <c r="A68" t="s">
         <v>152</v>
       </c>
@@ -3692,7 +3700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" hidden="1" spans="1:7">
       <c r="A70" t="s">
         <v>155</v>
       </c>
@@ -3715,7 +3723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" hidden="1" spans="1:7">
       <c r="A71" t="s">
         <v>156</v>
       </c>
@@ -3738,7 +3746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" hidden="1" spans="1:7">
       <c r="A72" t="s">
         <v>158</v>
       </c>
@@ -3761,7 +3769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" hidden="1" spans="1:7">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -3807,7 +3815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" hidden="1" spans="1:7">
       <c r="A75" t="s">
         <v>162</v>
       </c>
@@ -3830,7 +3838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" hidden="1" spans="1:7">
       <c r="A76" t="s">
         <v>163</v>
       </c>
@@ -3853,7 +3861,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" hidden="1" spans="1:7">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -3876,7 +3884,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" hidden="1" spans="1:7">
       <c r="A78" t="s">
         <v>168</v>
       </c>
@@ -3899,7 +3907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" hidden="1" spans="1:7">
       <c r="A79" t="s">
         <v>169</v>
       </c>
@@ -3922,7 +3930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" hidden="1" spans="1:7">
       <c r="A80" t="s">
         <v>170</v>
       </c>
@@ -3968,7 +3976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" hidden="1" spans="1:7">
       <c r="A82" t="s">
         <v>173</v>
       </c>
@@ -3991,7 +3999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" hidden="1" spans="1:7">
       <c r="A83" t="s">
         <v>175</v>
       </c>
@@ -4014,7 +4022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" hidden="1" spans="1:7">
       <c r="A84" t="s">
         <v>177</v>
       </c>
@@ -4037,7 +4045,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" hidden="1" spans="1:7">
       <c r="A85" t="s">
         <v>179</v>
       </c>
@@ -4060,7 +4068,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" hidden="1" spans="1:7">
       <c r="A86" t="s">
         <v>180</v>
       </c>
@@ -4083,7 +4091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" hidden="1" spans="1:7">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -4106,7 +4114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" hidden="1" spans="1:7">
       <c r="A88" t="s">
         <v>182</v>
       </c>
@@ -4129,7 +4137,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" hidden="1" spans="1:7">
       <c r="A89" t="s">
         <v>184</v>
       </c>
@@ -4152,7 +4160,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" hidden="1" spans="1:7">
       <c r="A90" t="s">
         <v>185</v>
       </c>
@@ -4175,7 +4183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" hidden="1" spans="1:7">
       <c r="A91" t="s">
         <v>186</v>
       </c>
@@ -4198,7 +4206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" hidden="1" spans="1:7">
       <c r="A92" t="s">
         <v>188</v>
       </c>
@@ -4221,7 +4229,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" hidden="1" spans="1:7">
       <c r="A93" t="s">
         <v>189</v>
       </c>
@@ -4244,7 +4252,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" hidden="1" spans="1:7">
       <c r="A94" t="s">
         <v>190</v>
       </c>
@@ -4267,7 +4275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" hidden="1" spans="1:7">
       <c r="A95" t="s">
         <v>191</v>
       </c>
@@ -4290,7 +4298,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" hidden="1" spans="1:7">
       <c r="A96" t="s">
         <v>192</v>
       </c>
@@ -4313,7 +4321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" hidden="1" spans="1:7">
       <c r="A97" t="s">
         <v>194</v>
       </c>
@@ -4336,7 +4344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" hidden="1" spans="1:7">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -4359,7 +4367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" hidden="1" spans="1:7">
       <c r="A99" t="s">
         <v>196</v>
       </c>
@@ -4382,7 +4390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" hidden="1" spans="1:7">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -4405,7 +4413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" hidden="1" spans="1:7">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -4428,7 +4436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" hidden="1" spans="1:7">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -4451,7 +4459,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" hidden="1" spans="1:7">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -4474,7 +4482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" hidden="1" spans="1:7">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -4497,7 +4505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" hidden="1" spans="1:7">
       <c r="A105" t="s">
         <v>206</v>
       </c>
@@ -4520,7 +4528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" hidden="1" spans="1:7">
       <c r="A106" t="s">
         <v>207</v>
       </c>
@@ -4543,7 +4551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" hidden="1" spans="1:7">
       <c r="A107" t="s">
         <v>208</v>
       </c>
@@ -4566,7 +4574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" hidden="1" spans="1:7">
       <c r="A108" t="s">
         <v>210</v>
       </c>
@@ -4589,7 +4597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" hidden="1" spans="1:7">
       <c r="A109" t="s">
         <v>212</v>
       </c>
@@ -4612,7 +4620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" hidden="1" spans="1:7">
       <c r="A110" t="s">
         <v>213</v>
       </c>
@@ -4635,7 +4643,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" hidden="1" spans="1:7">
       <c r="A111" t="s">
         <v>216</v>
       </c>
@@ -4658,7 +4666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" hidden="1" spans="1:7">
       <c r="A112" t="s">
         <v>217</v>
       </c>
@@ -4681,7 +4689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" hidden="1" spans="1:7">
       <c r="A113" t="s">
         <v>219</v>
       </c>
@@ -4704,7 +4712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" hidden="1" spans="1:7">
       <c r="A114" t="s">
         <v>220</v>
       </c>
@@ -4727,7 +4735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" hidden="1" spans="1:7">
       <c r="A115" t="s">
         <v>221</v>
       </c>
@@ -4750,7 +4758,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" hidden="1" spans="1:7">
       <c r="A116" t="s">
         <v>222</v>
       </c>
@@ -4773,7 +4781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" hidden="1" spans="1:7">
       <c r="A117" t="s">
         <v>224</v>
       </c>
@@ -4796,7 +4804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" hidden="1" spans="1:7">
       <c r="A118" t="s">
         <v>226</v>
       </c>
@@ -4819,7 +4827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" hidden="1" spans="1:7">
       <c r="A119" t="s">
         <v>228</v>
       </c>
@@ -4865,7 +4873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" hidden="1" spans="1:7">
       <c r="A121" t="s">
         <v>231</v>
       </c>
@@ -4911,7 +4919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" hidden="1" spans="1:7">
       <c r="A123" t="s">
         <v>235</v>
       </c>
@@ -4934,7 +4942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" hidden="1" spans="1:7">
       <c r="A124" t="s">
         <v>237</v>
       </c>
@@ -4957,7 +4965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" hidden="1" spans="1:7">
       <c r="A125" t="s">
         <v>238</v>
       </c>
@@ -4980,7 +4988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" hidden="1" spans="1:7">
       <c r="A126" t="s">
         <v>239</v>
       </c>
@@ -5003,7 +5011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" hidden="1" spans="1:7">
       <c r="A127" t="s">
         <v>241</v>
       </c>
@@ -5026,7 +5034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" hidden="1" spans="1:7">
       <c r="A128" t="s">
         <v>242</v>
       </c>
@@ -5072,7 +5080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" hidden="1" spans="1:7">
       <c r="A130" t="s">
         <v>245</v>
       </c>
@@ -5095,7 +5103,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" hidden="1" spans="1:7">
       <c r="A131" t="s">
         <v>246</v>
       </c>
@@ -5118,7 +5126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" hidden="1" spans="1:7">
       <c r="A132" t="s">
         <v>248</v>
       </c>
@@ -5141,7 +5149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" hidden="1" spans="1:7">
       <c r="A133" t="s">
         <v>249</v>
       </c>
@@ -5164,7 +5172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" hidden="1" spans="1:7">
       <c r="A134" t="s">
         <v>250</v>
       </c>
@@ -5187,7 +5195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" hidden="1" spans="1:7">
       <c r="A135" t="s">
         <v>251</v>
       </c>
@@ -5210,7 +5218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" hidden="1" spans="1:7">
       <c r="A136" t="s">
         <v>252</v>
       </c>
@@ -5233,7 +5241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" hidden="1" spans="1:7">
       <c r="A137" t="s">
         <v>253</v>
       </c>
@@ -5256,7 +5264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" hidden="1" spans="1:7">
       <c r="A138" t="s">
         <v>255</v>
       </c>
@@ -5279,7 +5287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" hidden="1" spans="1:7">
       <c r="A139" t="s">
         <v>256</v>
       </c>
@@ -5302,7 +5310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" hidden="1" spans="1:7">
       <c r="A140" t="s">
         <v>258</v>
       </c>
@@ -5325,7 +5333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" hidden="1" spans="1:7">
       <c r="A141" t="s">
         <v>260</v>
       </c>
@@ -5348,7 +5356,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" hidden="1" spans="1:7">
       <c r="A142" t="s">
         <v>261</v>
       </c>
@@ -5371,7 +5379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" hidden="1" spans="1:7">
       <c r="A143" t="s">
         <v>263</v>
       </c>
@@ -5394,7 +5402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" hidden="1" spans="1:7">
       <c r="A144" t="s">
         <v>265</v>
       </c>
@@ -5417,7 +5425,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" hidden="1" spans="1:7">
       <c r="A145" t="s">
         <v>266</v>
       </c>
@@ -5440,7 +5448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" hidden="1" spans="1:7">
       <c r="A146" t="s">
         <v>267</v>
       </c>
@@ -5509,7 +5517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" hidden="1" spans="1:7">
       <c r="A149" t="s">
         <v>270</v>
       </c>
@@ -5532,7 +5540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" hidden="1" spans="1:7">
       <c r="A150" t="s">
         <v>271</v>
       </c>
@@ -5555,7 +5563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" hidden="1" spans="1:7">
       <c r="A151" t="s">
         <v>272</v>
       </c>
@@ -5601,7 +5609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" hidden="1" spans="1:7">
       <c r="A153" t="s">
         <v>276</v>
       </c>
@@ -5624,7 +5632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" hidden="1" spans="1:7">
       <c r="A154" t="s">
         <v>277</v>
       </c>
@@ -5647,7 +5655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" hidden="1" spans="1:7">
       <c r="A155" t="s">
         <v>278</v>
       </c>
@@ -5670,7 +5678,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" hidden="1" spans="1:7">
       <c r="A156" t="s">
         <v>281</v>
       </c>
@@ -5693,7 +5701,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" hidden="1" spans="1:7">
       <c r="A157" t="s">
         <v>285</v>
       </c>
@@ -5716,7 +5724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" hidden="1" spans="1:7">
       <c r="A158" t="s">
         <v>286</v>
       </c>
@@ -5739,7 +5747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" hidden="1" spans="1:7">
       <c r="A159" t="s">
         <v>287</v>
       </c>
@@ -5762,7 +5770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" hidden="1" spans="1:7">
       <c r="A160" t="s">
         <v>288</v>
       </c>
@@ -5785,7 +5793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" hidden="1" spans="1:7">
       <c r="A161" t="s">
         <v>289</v>
       </c>
@@ -5808,7 +5816,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" hidden="1" spans="1:7">
       <c r="A162" t="s">
         <v>290</v>
       </c>
@@ -5831,7 +5839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" hidden="1" spans="1:7">
       <c r="A163" t="s">
         <v>292</v>
       </c>
@@ -5877,7 +5885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" hidden="1" spans="1:7">
       <c r="A165" t="s">
         <v>295</v>
       </c>
@@ -5900,7 +5908,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" hidden="1" spans="1:7">
       <c r="A166" t="s">
         <v>297</v>
       </c>
@@ -5923,7 +5931,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" hidden="1" spans="1:7">
       <c r="A167" t="s">
         <v>300</v>
       </c>
@@ -5946,7 +5954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" hidden="1" spans="1:7">
       <c r="A168" t="s">
         <v>301</v>
       </c>
@@ -5969,7 +5977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" hidden="1" spans="1:7">
       <c r="A169" t="s">
         <v>302</v>
       </c>
@@ -5992,7 +6000,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" hidden="1" spans="1:7">
       <c r="A170" t="s">
         <v>303</v>
       </c>
@@ -6015,7 +6023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" hidden="1" spans="1:7">
       <c r="A171" t="s">
         <v>304</v>
       </c>
@@ -6038,7 +6046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" hidden="1" spans="1:7">
       <c r="A172" t="s">
         <v>306</v>
       </c>
@@ -6061,7 +6069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" hidden="1" spans="1:7">
       <c r="A173" t="s">
         <v>307</v>
       </c>
@@ -6084,7 +6092,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" hidden="1" spans="1:7">
       <c r="A174" t="s">
         <v>308</v>
       </c>
@@ -6107,7 +6115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" hidden="1" spans="1:7">
       <c r="A175" t="s">
         <v>311</v>
       </c>
@@ -6130,7 +6138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" hidden="1" spans="1:7">
       <c r="A176" t="s">
         <v>312</v>
       </c>
@@ -6153,7 +6161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" hidden="1" spans="1:7">
       <c r="A177" t="s">
         <v>315</v>
       </c>
@@ -6176,7 +6184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" hidden="1" spans="1:7">
       <c r="A178" t="s">
         <v>316</v>
       </c>
@@ -6199,7 +6207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" hidden="1" spans="1:7">
       <c r="A179" t="s">
         <v>318</v>
       </c>
@@ -6222,7 +6230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" hidden="1" spans="1:7">
       <c r="A180" t="s">
         <v>320</v>
       </c>
@@ -6245,7 +6253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" hidden="1" spans="1:7">
       <c r="A181" t="s">
         <v>322</v>
       </c>
@@ -6268,7 +6276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" hidden="1" spans="1:7">
       <c r="A182" t="s">
         <v>323</v>
       </c>
@@ -6291,7 +6299,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" hidden="1" spans="1:7">
       <c r="A183" t="s">
         <v>324</v>
       </c>
@@ -6314,7 +6322,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" hidden="1" spans="1:7">
       <c r="A184" t="s">
         <v>325</v>
       </c>
@@ -6337,7 +6345,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" hidden="1" spans="1:7">
       <c r="A185" t="s">
         <v>326</v>
       </c>
@@ -6360,7 +6368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" hidden="1" spans="1:7">
       <c r="A186" t="s">
         <v>327</v>
       </c>
@@ -6383,7 +6391,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" hidden="1" spans="1:7">
       <c r="A187" t="s">
         <v>328</v>
       </c>
@@ -6406,7 +6414,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" hidden="1" spans="1:7">
       <c r="A188" t="s">
         <v>330</v>
       </c>
@@ -6429,7 +6437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" hidden="1" spans="1:7">
       <c r="A189" t="s">
         <v>331</v>
       </c>
@@ -6475,7 +6483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" hidden="1" spans="1:7">
       <c r="A191" t="s">
         <v>334</v>
       </c>
@@ -6498,7 +6506,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" hidden="1" spans="1:7">
       <c r="A192" t="s">
         <v>335</v>
       </c>
@@ -6521,7 +6529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" hidden="1" spans="1:7">
       <c r="A193" t="s">
         <v>338</v>
       </c>
@@ -6567,7 +6575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" hidden="1" spans="1:7">
       <c r="A195" t="s">
         <v>340</v>
       </c>
@@ -6590,7 +6598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" hidden="1" spans="1:7">
       <c r="A196" t="s">
         <v>341</v>
       </c>
@@ -6613,7 +6621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" hidden="1" spans="1:7">
       <c r="A197" t="s">
         <v>342</v>
       </c>
@@ -6636,7 +6644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" hidden="1" spans="1:7">
       <c r="A198" t="s">
         <v>343</v>
       </c>
@@ -6659,7 +6667,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" hidden="1" spans="1:7">
       <c r="A199" t="s">
         <v>344</v>
       </c>
@@ -6682,7 +6690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" hidden="1" spans="1:7">
       <c r="A200" t="s">
         <v>346</v>
       </c>
@@ -6705,7 +6713,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" hidden="1" spans="1:7">
       <c r="A201" t="s">
         <v>348</v>
       </c>
@@ -6728,7 +6736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" hidden="1" spans="1:7">
       <c r="A202" t="s">
         <v>349</v>
       </c>
@@ -6751,7 +6759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" hidden="1" spans="1:7">
       <c r="A203" t="s">
         <v>350</v>
       </c>
@@ -6774,7 +6782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" hidden="1" spans="1:7">
       <c r="A204" t="s">
         <v>352</v>
       </c>
@@ -6797,7 +6805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" hidden="1" spans="1:7">
       <c r="A205" t="s">
         <v>353</v>
       </c>
@@ -6820,7 +6828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" hidden="1" spans="1:7">
       <c r="A206" t="s">
         <v>356</v>
       </c>
@@ -6843,7 +6851,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" hidden="1" spans="1:7">
       <c r="A207" t="s">
         <v>357</v>
       </c>
@@ -6889,7 +6897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" hidden="1" spans="1:7">
       <c r="A209" t="s">
         <v>360</v>
       </c>
@@ -6935,7 +6943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" hidden="1" spans="1:7">
       <c r="A211" t="s">
         <v>362</v>
       </c>
@@ -6958,7 +6966,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" hidden="1" spans="1:7">
       <c r="A212" t="s">
         <v>365</v>
       </c>
@@ -7004,7 +7012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" hidden="1" spans="1:7">
       <c r="A214" t="s">
         <v>368</v>
       </c>
@@ -7027,7 +7035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" hidden="1" spans="1:7">
       <c r="A215" t="s">
         <v>369</v>
       </c>
@@ -7051,6 +7059,30 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G215">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="equal" val="四川"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="equal" val="电信"/>
+      </customFilters>
+    </filterColumn>
+    <extLst>
+      <etc:autoFilterAnalysis etc:version="v1" etc:showPane="1">
+        <etc:analysisCharts>
+          <etc:chart etc:type="pie">
+            <etc:category etc:colId="5"/>
+            <etc:seriesCollections etc:count="1">
+              <etc:series etc:colId="5" etc:subtotal="count"/>
+            </etc:seriesCollections>
+          </etc:chart>
+        </etc:analysisCharts>
+      </etc:autoFilterAnalysis>
+    </extLst>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -7062,7 +7094,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -7097,7 +7129,7 @@
       <c r="C2">
         <v>85</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.3462</v>
       </c>
     </row>
@@ -7111,7 +7143,7 @@
       <c r="C3">
         <v>38</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.0256</v>
       </c>
     </row>
@@ -7125,7 +7157,7 @@
       <c r="C4">
         <v>27</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.2895</v>
       </c>
     </row>
@@ -7139,7 +7171,7 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7153,7 +7185,7 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7167,7 +7199,7 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.3333</v>
       </c>
     </row>
@@ -7181,7 +7213,7 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7195,7 +7227,7 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7222,16 +7254,16 @@
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>377</v>
       </c>
     </row>
@@ -7245,7 +7277,7 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7259,7 +7291,7 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7273,7 +7305,7 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7287,7 +7319,7 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.75</v>
       </c>
     </row>
@@ -7301,7 +7333,7 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.6667</v>
       </c>
     </row>
@@ -7315,7 +7347,7 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.6</v>
       </c>
     </row>
@@ -7329,7 +7361,7 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.5</v>
       </c>
     </row>
@@ -7343,7 +7375,7 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.5</v>
       </c>
     </row>
@@ -7357,7 +7389,7 @@
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.4286</v>
       </c>
     </row>
@@ -7371,7 +7403,7 @@
       <c r="C11">
         <v>20</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.375</v>
       </c>
     </row>
@@ -7385,7 +7417,7 @@
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.2727</v>
       </c>
     </row>
@@ -7399,7 +7431,7 @@
       <c r="C13">
         <v>8</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>0.2727</v>
       </c>
     </row>
@@ -7413,7 +7445,7 @@
       <c r="C14">
         <v>27</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0.25</v>
       </c>
     </row>
@@ -7427,7 +7459,7 @@
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>0.25</v>
       </c>
     </row>
@@ -7441,7 +7473,7 @@
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>0.25</v>
       </c>
     </row>
@@ -7455,7 +7487,7 @@
       <c r="C17">
         <v>7</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>0.2222</v>
       </c>
     </row>
@@ -7469,7 +7501,7 @@
       <c r="C18">
         <v>7</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0.2222</v>
       </c>
     </row>
@@ -7483,7 +7515,7 @@
       <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -7497,7 +7529,7 @@
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>0.1667</v>
       </c>
     </row>
@@ -7511,7 +7543,7 @@
       <c r="C21">
         <v>5</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>0.1667</v>
       </c>
     </row>
@@ -7525,7 +7557,7 @@
       <c r="C22">
         <v>6</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>0.1429</v>
       </c>
     </row>
@@ -7539,7 +7571,7 @@
       <c r="C23">
         <v>13</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>0.1333</v>
       </c>
     </row>
@@ -7553,7 +7585,7 @@
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7567,7 +7599,7 @@
       <c r="C25">
         <v>6</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7581,7 +7613,7 @@
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7595,7 +7627,7 @@
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7609,7 +7641,7 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7623,7 +7655,7 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7637,7 +7669,7 @@
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7651,7 +7683,7 @@
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7665,7 +7697,7 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7680,23 +7712,23 @@
   <sheetPr/>
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>377</v>
       </c>
     </row>
@@ -8860,6 +8892,1862 @@
       </c>
       <c r="D84">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>337</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>345</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>366</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.8333</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.6667</v>
+      </c>
+      <c r="D23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.3333</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.3333</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.1667</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.1667</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.1429</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.1429</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>174</v>
+      </c>
+      <c r="E65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>183</v>
+      </c>
+      <c r="E70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>187</v>
+      </c>
+      <c r="E71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>199</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>211</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>223</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>227</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>232</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>218</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>247</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>254</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>116</v>
+      </c>
+      <c r="E84" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>264</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>218</v>
+      </c>
+      <c r="E86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>274</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>66</v>
+      </c>
+      <c r="E88" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>280</v>
+      </c>
+      <c r="E89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>282</v>
+      </c>
+      <c r="E90" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>291</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>296</v>
+      </c>
+      <c r="E92" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>299</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>305</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>310</v>
+      </c>
+      <c r="E95" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>314</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>317</v>
+      </c>
+      <c r="E97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>319</v>
+      </c>
+      <c r="E98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>321</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>333</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>347</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>351</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>92</v>
+      </c>
+      <c r="E104" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>355</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>92</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>364</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>370</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
